--- a/lcd_layout.xlsx
+++ b/lcd_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janwi\Documents\GitHub\STM_FlightController\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED9B5547-590B-4FF2-8B9B-D661F77ACFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D86328E-E35F-4009-AE54-7EDF235AE945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6596B24D-DD94-47E3-82D3-B98D35A61446}"/>
+    <workbookView xWindow="-23148" yWindow="2076" windowWidth="23256" windowHeight="12720" xr2:uid="{6596B24D-DD94-47E3-82D3-B98D35A61446}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>:</t>
   </si>
@@ -48,15 +39,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -70,16 +52,32 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -180,24 +178,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -218,6 +204,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,147 +541,152 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="17" width="2.7109375" customWidth="1"/>
+    <col min="2" max="17" width="3" customWidth="1"/>
     <col min="19" max="19" width="3.42578125" customWidth="1"/>
     <col min="20" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7">
+      <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="3">
         <v>5</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="3">
         <v>6</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="3">
         <v>7</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="3">
         <v>8</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="3">
         <v>9</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="3">
         <v>10</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="3">
         <v>11</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="3">
         <v>12</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="3">
         <v>13</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="3">
         <v>14</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="Q1" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="2"/>
-      <c r="S2" s="12"/>
+      <c r="N2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="8"/>
       <c r="T2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="14" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" t="s">
         <v>4</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="S3" s="13"/>
-      <c r="T3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>